--- a/MiddleAssignment_LeTuanSang/TestCase5/TestCase5_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestCase5/TestCase5_LeTuanSang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\TestCase5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E6D01-48EC-427A-A96F-9D84914AC57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D7D084-2450-40A7-928D-185682FC7368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="510" windowWidth="12000" windowHeight="14715" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="1" r:id="rId1"/>
@@ -1218,13 +1218,6 @@
     <t>Delete address successfully when default address is change to non default address</t>
   </si>
   <si>
-    <t>1. Make non default address become default address
-2. Click on changed address
-3. Click on Delete button
-4. Click on Delete button on pop- up
-5. Observe screen</t>
-  </si>
-  <si>
     <t>1. Click on 1 non default address
 2. Click on Delete button
 3. Click on CANCEL button on pop- up
@@ -1245,6 +1238,14 @@
 2. Click on Delete button
 3. Press Esc
 4. Observe screen</t>
+  </si>
+  <si>
+    <t>Pre- condition: there are at least 2 address in Address Book: 1 default and 1 non defautl
+1. Make non default address become default address
+2. Click on new non default address
+3. Click on Delete button
+4. Click on Delete button on pop- up
+5. Observe screen</t>
   </si>
 </sst>
 </file>
@@ -2633,6 +2634,18 @@
     <xf numFmtId="49" fontId="65" fillId="15" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2651,6 +2664,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2663,18 +2688,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2687,6 +2700,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2699,23 +2730,35 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2725,48 +2768,6 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -4419,37 +4420,37 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="195" t="s">
+      <c r="B5" s="198"/>
+      <c r="C5" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="192" t="s">
+      <c r="B6" s="200"/>
+      <c r="C6" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -4461,14 +4462,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="191"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
@@ -4551,14 +4552,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
@@ -4681,36 +4682,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="198" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="198"/>
+      <c r="K2" s="206"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="200" t="s">
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -4730,65 +4731,65 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="201" t="s">
+      <c r="A7" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="201"/>
-      <c r="B8" s="201"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="201"/>
+      <c r="A8" s="203"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="201" t="s">
+      <c r="A9" s="203" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="201"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="201"/>
-      <c r="I9" s="201"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="201"/>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
+      <c r="A10" s="203"/>
+      <c r="B10" s="203"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
@@ -4810,65 +4811,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="203" t="s">
+      <c r="B14" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="203"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="203" t="s">
+      <c r="B15" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="203"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="203" t="s">
+      <c r="B16" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="203"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -4879,40 +4880,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="201" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="201"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -4971,11 +4972,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="204" t="s">
+      <c r="B29" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -4998,21 +4999,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A7:I8"/>
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5052,14 +5053,14 @@
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="40" customFormat="1" ht="25.5">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="41"/>
@@ -5242,12 +5243,12 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
       <c r="E2" s="55"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
@@ -5408,18 +5409,18 @@
       <c r="F14" s="62"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="211" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="207"/>
+      <c r="B16" s="211"/>
       <c r="C16" s="65"/>
       <c r="D16" s="66"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="208"/>
+      <c r="B17" s="212"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="67"/>
@@ -5466,15 +5467,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="68" customWidth="1"/>
     <col min="2" max="2" width="40.140625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="235" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="194" customWidth="1"/>
     <col min="4" max="4" width="41.140625" style="70" customWidth="1"/>
     <col min="5" max="5" width="64.28515625" style="70" customWidth="1"/>
     <col min="6" max="6" width="39.5703125" style="70" customWidth="1"/>
@@ -5484,10 +5485,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="209"/>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="A1" s="219"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -5497,14 +5498,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="211"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -5514,10 +5515,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="211"/>
+      <c r="F3" s="221"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -5528,9 +5529,9 @@
       <c r="A4" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
       <c r="E4" s="76"/>
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
@@ -5545,9 +5546,9 @@
       <c r="A5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
       <c r="E5" s="76"/>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -5562,11 +5563,11 @@
       <c r="A6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="216" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="76"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -5578,11 +5579,11 @@
       <c r="A7" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
       <c r="E7" s="76"/>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -5595,9 +5596,9 @@
       <c r="A8" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="82"/>
       <c r="F8" s="77"/>
     </row>
@@ -5745,15 +5746,15 @@
     <row r="16" spans="1:25" s="96" customFormat="1">
       <c r="A16" s="91"/>
       <c r="B16" s="92"/>
-      <c r="C16" s="232"/>
+      <c r="C16" s="191"/>
       <c r="D16" s="93"/>
       <c r="E16" s="93"/>
       <c r="F16" s="94"/>
-      <c r="G16" s="215" t="s">
+      <c r="G16" s="218" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
       <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:11" s="96" customFormat="1">
@@ -5782,11 +5783,11 @@
     </row>
     <row r="18" spans="1:11" s="96" customFormat="1" ht="12.75">
       <c r="A18" s="181"/>
-      <c r="B18" s="217" t="s">
+      <c r="B18" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="100"/>
       <c r="F18" s="99"/>
       <c r="G18" s="101"/>
@@ -5856,7 +5857,7 @@
       <c r="I21" s="169"/>
       <c r="J21" s="170"/>
     </row>
-    <row r="22" spans="1:11" s="102" customFormat="1" ht="76.5">
+    <row r="22" spans="1:11" s="102" customFormat="1" ht="114.75">
       <c r="A22" s="183">
         <f t="shared" ref="A22:A25" ca="1" si="0">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
         <v>4</v>
@@ -5865,7 +5866,7 @@
         <v>211</v>
       </c>
       <c r="C22" s="186" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D22" s="190" t="s">
         <v>208</v>
@@ -5886,10 +5887,10 @@
         <v>199</v>
       </c>
       <c r="C23" s="186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" s="190" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" s="188"/>
       <c r="F23" s="168"/>
@@ -5907,10 +5908,10 @@
         <v>200</v>
       </c>
       <c r="C24" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="190" t="s">
         <v>213</v>
-      </c>
-      <c r="D24" s="190" t="s">
-        <v>214</v>
       </c>
       <c r="E24" s="188"/>
       <c r="F24" s="168"/>
@@ -5928,10 +5929,10 @@
         <v>201</v>
       </c>
       <c r="C25" s="186" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="190" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" s="188"/>
       <c r="F25" s="168"/>
@@ -6552,7 +6553,7 @@
     <row r="73" spans="1:11" s="102" customFormat="1" ht="14.25">
       <c r="A73" s="32"/>
       <c r="B73" s="176"/>
-      <c r="C73" s="233"/>
+      <c r="C73" s="192"/>
       <c r="D73" s="176"/>
       <c r="E73" s="176"/>
       <c r="F73" s="176"/>
@@ -6578,7 +6579,7 @@
     <row r="75" spans="1:11" s="102" customFormat="1" ht="14.25">
       <c r="A75" s="32"/>
       <c r="B75" s="176"/>
-      <c r="C75" s="233"/>
+      <c r="C75" s="192"/>
       <c r="D75" s="176"/>
       <c r="E75" s="176"/>
       <c r="F75" s="176"/>
@@ -6615,7 +6616,7 @@
     <row r="78" spans="1:11" s="102" customFormat="1">
       <c r="A78" s="104"/>
       <c r="B78" s="175"/>
-      <c r="C78" s="234"/>
+      <c r="C78" s="193"/>
       <c r="D78" s="167"/>
       <c r="E78" s="167"/>
       <c r="F78" s="168"/>
@@ -6627,7 +6628,7 @@
     <row r="79" spans="1:11" s="102" customFormat="1">
       <c r="A79" s="104"/>
       <c r="B79" s="175"/>
-      <c r="C79" s="234"/>
+      <c r="C79" s="193"/>
       <c r="D79" s="167"/>
       <c r="E79" s="167"/>
       <c r="F79" s="168"/>
@@ -6639,7 +6640,7 @@
     <row r="80" spans="1:11" s="102" customFormat="1">
       <c r="A80" s="104"/>
       <c r="B80" s="175"/>
-      <c r="C80" s="234"/>
+      <c r="C80" s="193"/>
       <c r="D80" s="167"/>
       <c r="E80" s="167"/>
       <c r="F80" s="168"/>
@@ -6662,9 +6663,9 @@
     </row>
     <row r="82" spans="1:10" s="106" customFormat="1">
       <c r="A82" s="104"/>
-      <c r="B82" s="218"/>
-      <c r="C82" s="218"/>
-      <c r="D82" s="218"/>
+      <c r="B82" s="215"/>
+      <c r="C82" s="215"/>
+      <c r="D82" s="215"/>
       <c r="E82" s="178"/>
       <c r="F82" s="168"/>
       <c r="G82" s="169"/>
@@ -7046,9 +7047,9 @@
     </row>
     <row r="114" spans="1:10" s="106" customFormat="1" ht="14.25">
       <c r="A114" s="108"/>
-      <c r="B114" s="216"/>
-      <c r="C114" s="216"/>
-      <c r="D114" s="216"/>
+      <c r="B114" s="213"/>
+      <c r="C114" s="213"/>
+      <c r="D114" s="213"/>
       <c r="E114" s="179"/>
       <c r="F114" s="173"/>
       <c r="G114" s="174"/>
@@ -7094,9 +7095,9 @@
     </row>
     <row r="118" spans="1:10" s="106" customFormat="1" ht="14.25">
       <c r="A118" s="108"/>
-      <c r="B118" s="216"/>
-      <c r="C118" s="216"/>
-      <c r="D118" s="216"/>
+      <c r="B118" s="213"/>
+      <c r="C118" s="213"/>
+      <c r="D118" s="213"/>
       <c r="E118" s="179"/>
       <c r="F118" s="173"/>
       <c r="G118" s="174"/>
@@ -7142,9 +7143,9 @@
     </row>
     <row r="122" spans="1:10" s="106" customFormat="1" ht="14.25">
       <c r="A122" s="108"/>
-      <c r="B122" s="216"/>
-      <c r="C122" s="216"/>
-      <c r="D122" s="216"/>
+      <c r="B122" s="213"/>
+      <c r="C122" s="213"/>
+      <c r="D122" s="213"/>
       <c r="E122" s="179"/>
       <c r="F122" s="173"/>
       <c r="G122" s="174"/>
@@ -7178,9 +7179,9 @@
     </row>
     <row r="125" spans="1:10" s="106" customFormat="1" ht="14.25">
       <c r="A125" s="108"/>
-      <c r="B125" s="216"/>
-      <c r="C125" s="216"/>
-      <c r="D125" s="216"/>
+      <c r="B125" s="213"/>
+      <c r="C125" s="213"/>
+      <c r="D125" s="213"/>
       <c r="E125" s="179"/>
       <c r="F125" s="173"/>
       <c r="G125" s="174"/>
@@ -7250,22 +7251,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="B125:D125"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B114:D114"/>
     <mergeCell ref="B118:D118"/>
     <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="G16:I17" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -7329,13 +7330,13 @@
     </row>
     <row r="2" spans="1:12" s="114" customFormat="1" ht="26.25">
       <c r="A2" s="113"/>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="233" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
       <c r="H2" s="115" t="s">
         <v>110</v>
       </c>
@@ -7346,15 +7347,15 @@
     </row>
     <row r="3" spans="1:12" s="114" customFormat="1" ht="23.25">
       <c r="A3" s="113"/>
-      <c r="C3" s="220" t="s">
+      <c r="C3" s="234" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="220"/>
+      <c r="D3" s="234"/>
       <c r="E3" s="117"/>
-      <c r="F3" s="221" t="s">
+      <c r="F3" s="235" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="221"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="116"/>
       <c r="I3" s="116"/>
       <c r="J3" s="118"/>
@@ -7379,10 +7380,10 @@
       <c r="L5" s="123"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="229" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="222"/>
+      <c r="C6" s="229"/>
       <c r="D6" s="125"/>
       <c r="E6" s="125"/>
       <c r="F6" s="125"/>
@@ -7551,11 +7552,11 @@
       <c r="G13" s="129"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="222"/>
-      <c r="D14" s="222"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
       <c r="E14" s="125"/>
       <c r="F14" s="125"/>
       <c r="G14" s="126"/>
@@ -7731,11 +7732,11 @@
       <c r="G22" s="129"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="222" t="s">
+      <c r="B23" s="229" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="222"/>
-      <c r="D23" s="222"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
       <c r="E23" s="125"/>
       <c r="F23" s="125"/>
       <c r="G23" s="126"/>
@@ -7781,10 +7782,10 @@
       <c r="F26" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="223" t="s">
+      <c r="G26" s="232" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="223"/>
+      <c r="H26" s="232"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="138">
@@ -7809,8 +7810,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="230"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="138">
@@ -7835,8 +7836,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="224"/>
-      <c r="H28" s="224"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="230"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="138">
@@ -7861,8 +7862,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="230"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="138">
@@ -7887,8 +7888,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="230"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="138"/>
@@ -7909,8 +7910,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="230"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="144"/>
@@ -7948,10 +7949,10 @@
       <c r="E34" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="225" t="s">
+      <c r="F34" s="226" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="225"/>
+      <c r="G34" s="226"/>
     </row>
     <row r="35" spans="1:12" s="137" customFormat="1" ht="14.25">
       <c r="A35" s="133"/>
@@ -7967,8 +7968,8 @@
       <c r="E35" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="226"/>
-      <c r="G35" s="226"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="231"/>
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="136"/>
@@ -7991,8 +7992,8 @@
       <c r="E36" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="224"/>
-      <c r="G36" s="224"/>
+      <c r="F36" s="230"/>
+      <c r="G36" s="230"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="138">
@@ -8010,8 +8011,8 @@
       <c r="E37" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="224"/>
-      <c r="G37" s="224"/>
+      <c r="F37" s="230"/>
+      <c r="G37" s="230"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="144"/>
@@ -8024,10 +8025,10 @@
       <c r="H38" s="148"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="222" t="s">
+      <c r="B39" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="222"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="125"/>
@@ -8051,15 +8052,15 @@
       <c r="B41" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="225" t="s">
+      <c r="C41" s="226" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="225"/>
-      <c r="E41" s="225" t="s">
+      <c r="D41" s="226"/>
+      <c r="E41" s="226" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="225"/>
-      <c r="G41" s="225"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="226"/>
       <c r="H41" s="130" t="s">
         <v>180</v>
       </c>
@@ -8071,15 +8072,15 @@
       <c r="B42" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="227" t="s">
+      <c r="C42" s="228" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="227"/>
-      <c r="E42" s="227" t="s">
+      <c r="D42" s="228"/>
+      <c r="E42" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
       <c r="H42" s="153"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -8089,15 +8090,15 @@
       <c r="B43" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="227" t="s">
+      <c r="C43" s="228" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="227"/>
-      <c r="E43" s="227" t="s">
+      <c r="D43" s="228"/>
+      <c r="E43" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="227"/>
-      <c r="G43" s="227"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="228"/>
       <c r="H43" s="153"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -8107,15 +8108,15 @@
       <c r="B44" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="227" t="s">
+      <c r="C44" s="228" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="227"/>
-      <c r="E44" s="227" t="s">
+      <c r="D44" s="228"/>
+      <c r="E44" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="227"/>
-      <c r="G44" s="227"/>
+      <c r="F44" s="228"/>
+      <c r="G44" s="228"/>
       <c r="H44" s="153"/>
     </row>
     <row r="45" spans="1:12">
@@ -8127,10 +8128,10 @@
       <c r="G45" s="129"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="222" t="s">
+      <c r="B46" s="229" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="222"/>
+      <c r="C46" s="229"/>
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="125"/>
@@ -8148,25 +8149,25 @@
       <c r="G47" s="129"/>
     </row>
     <row r="48" spans="1:12" s="157" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="229" t="s">
+      <c r="A48" s="224" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="230" t="s">
+      <c r="B48" s="225" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="225" t="s">
+      <c r="C48" s="226" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="225"/>
-      <c r="E48" s="225"/>
-      <c r="F48" s="225"/>
-      <c r="G48" s="231" t="s">
+      <c r="D48" s="226"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="227" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="231" t="s">
+      <c r="H48" s="227" t="s">
         <v>186</v>
       </c>
-      <c r="I48" s="228" t="s">
+      <c r="I48" s="223" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="156"/>
@@ -8174,8 +8175,8 @@
       <c r="L48" s="156"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="229"/>
-      <c r="B49" s="230"/>
+      <c r="A49" s="224"/>
+      <c r="B49" s="225"/>
       <c r="C49" s="158" t="s">
         <v>161</v>
       </c>
@@ -8188,13 +8189,13 @@
       <c r="F49" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="231"/>
-      <c r="H49" s="231"/>
-      <c r="I49" s="228"/>
+      <c r="G49" s="227"/>
+      <c r="H49" s="227"/>
+      <c r="I49" s="223"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="229"/>
-      <c r="B50" s="230"/>
+      <c r="A50" s="224"/>
+      <c r="B50" s="225"/>
       <c r="C50" s="160" t="s">
         <v>189</v>
       </c>
@@ -8306,38 +8307,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">

--- a/MiddleAssignment_LeTuanSang/TestCase5/TestCase5_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestCase5/TestCase5_LeTuanSang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\TestCase5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D7D084-2450-40A7-928D-185682FC7368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C756E5A9-17E9-484C-B75A-5A2C234CA37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="510" windowWidth="12000" windowHeight="14715" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="1" r:id="rId1"/>
@@ -2664,30 +2664,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2700,6 +2700,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2709,26 +2730,32 @@
     <xf numFmtId="0" fontId="41" fillId="15" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2739,35 +2766,8 @@
     <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="56" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="54" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -4682,36 +4682,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="206" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="206"/>
+      <c r="K2" s="202"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="208" t="s">
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -4731,65 +4731,65 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="203"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="205"/>
+      <c r="I7" s="205"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="203"/>
-      <c r="B8" s="203"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="203"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
@@ -4811,65 +4811,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="207"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="201"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="207"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="207"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -4880,40 +4880,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="201" t="s">
+      <c r="B21" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="201" t="s">
+      <c r="B22" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="201"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="207"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -4972,11 +4972,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="208"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -4999,21 +4999,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A7:I8"/>
-    <mergeCell ref="A9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5467,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5485,10 +5485,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="219"/>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -5498,14 +5498,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="221"/>
+      <c r="F2" s="215"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -5515,10 +5515,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="221"/>
+      <c r="F3" s="215"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -5529,9 +5529,9 @@
       <c r="A4" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
       <c r="E4" s="76"/>
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
@@ -5546,9 +5546,9 @@
       <c r="A5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
       <c r="E5" s="76"/>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -5563,11 +5563,11 @@
       <c r="A6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="217" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
       <c r="E6" s="76"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -5579,11 +5579,11 @@
       <c r="A7" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
       <c r="E7" s="76"/>
       <c r="F7" s="77"/>
       <c r="G7" s="77"/>
@@ -5596,9 +5596,9 @@
       <c r="A8" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="217"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="218"/>
       <c r="E8" s="82"/>
       <c r="F8" s="77"/>
     </row>
@@ -5750,11 +5750,11 @@
       <c r="D16" s="93"/>
       <c r="E16" s="93"/>
       <c r="F16" s="94"/>
-      <c r="G16" s="218" t="s">
+      <c r="G16" s="219" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
       <c r="J16" s="95"/>
     </row>
     <row r="17" spans="1:11" s="96" customFormat="1">
@@ -5783,11 +5783,11 @@
     </row>
     <row r="18" spans="1:11" s="96" customFormat="1" ht="12.75">
       <c r="A18" s="181"/>
-      <c r="B18" s="214" t="s">
+      <c r="B18" s="221" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="100"/>
       <c r="F18" s="99"/>
       <c r="G18" s="101"/>
@@ -6663,9 +6663,9 @@
     </row>
     <row r="82" spans="1:10" s="106" customFormat="1">
       <c r="A82" s="104"/>
-      <c r="B82" s="215"/>
-      <c r="C82" s="215"/>
-      <c r="D82" s="215"/>
+      <c r="B82" s="222"/>
+      <c r="C82" s="222"/>
+      <c r="D82" s="222"/>
       <c r="E82" s="178"/>
       <c r="F82" s="168"/>
       <c r="G82" s="169"/>
@@ -7047,9 +7047,9 @@
     </row>
     <row r="114" spans="1:10" s="106" customFormat="1" ht="14.25">
       <c r="A114" s="108"/>
-      <c r="B114" s="213"/>
-      <c r="C114" s="213"/>
-      <c r="D114" s="213"/>
+      <c r="B114" s="220"/>
+      <c r="C114" s="220"/>
+      <c r="D114" s="220"/>
       <c r="E114" s="179"/>
       <c r="F114" s="173"/>
       <c r="G114" s="174"/>
@@ -7095,9 +7095,9 @@
     </row>
     <row r="118" spans="1:10" s="106" customFormat="1" ht="14.25">
       <c r="A118" s="108"/>
-      <c r="B118" s="213"/>
-      <c r="C118" s="213"/>
-      <c r="D118" s="213"/>
+      <c r="B118" s="220"/>
+      <c r="C118" s="220"/>
+      <c r="D118" s="220"/>
       <c r="E118" s="179"/>
       <c r="F118" s="173"/>
       <c r="G118" s="174"/>
@@ -7143,9 +7143,9 @@
     </row>
     <row r="122" spans="1:10" s="106" customFormat="1" ht="14.25">
       <c r="A122" s="108"/>
-      <c r="B122" s="213"/>
-      <c r="C122" s="213"/>
-      <c r="D122" s="213"/>
+      <c r="B122" s="220"/>
+      <c r="C122" s="220"/>
+      <c r="D122" s="220"/>
       <c r="E122" s="179"/>
       <c r="F122" s="173"/>
       <c r="G122" s="174"/>
@@ -7179,9 +7179,9 @@
     </row>
     <row r="125" spans="1:10" s="106" customFormat="1" ht="14.25">
       <c r="A125" s="108"/>
-      <c r="B125" s="213"/>
-      <c r="C125" s="213"/>
-      <c r="D125" s="213"/>
+      <c r="B125" s="220"/>
+      <c r="C125" s="220"/>
+      <c r="D125" s="220"/>
       <c r="E125" s="179"/>
       <c r="F125" s="173"/>
       <c r="G125" s="174"/>
@@ -7251,22 +7251,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="B125:D125"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B114:D114"/>
     <mergeCell ref="B118:D118"/>
     <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="G16:I17" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -7330,13 +7330,13 @@
     </row>
     <row r="2" spans="1:12" s="114" customFormat="1" ht="26.25">
       <c r="A2" s="113"/>
-      <c r="C2" s="233" t="s">
+      <c r="C2" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
       <c r="H2" s="115" t="s">
         <v>110</v>
       </c>
@@ -7347,15 +7347,15 @@
     </row>
     <row r="3" spans="1:12" s="114" customFormat="1" ht="23.25">
       <c r="A3" s="113"/>
-      <c r="C3" s="234" t="s">
+      <c r="C3" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="234"/>
+      <c r="D3" s="224"/>
       <c r="E3" s="117"/>
-      <c r="F3" s="235" t="s">
+      <c r="F3" s="225" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="235"/>
+      <c r="G3" s="225"/>
       <c r="H3" s="116"/>
       <c r="I3" s="116"/>
       <c r="J3" s="118"/>
@@ -7380,10 +7380,10 @@
       <c r="L5" s="123"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="229"/>
+      <c r="C6" s="226"/>
       <c r="D6" s="125"/>
       <c r="E6" s="125"/>
       <c r="F6" s="125"/>
@@ -7552,11 +7552,11 @@
       <c r="G13" s="129"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="226" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="226"/>
       <c r="E14" s="125"/>
       <c r="F14" s="125"/>
       <c r="G14" s="126"/>
@@ -7732,11 +7732,11 @@
       <c r="G22" s="129"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="226" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="229"/>
-      <c r="D23" s="229"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="226"/>
       <c r="E23" s="125"/>
       <c r="F23" s="125"/>
       <c r="G23" s="126"/>
@@ -7782,10 +7782,10 @@
       <c r="F26" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="232" t="s">
+      <c r="G26" s="227" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="232"/>
+      <c r="H26" s="227"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="138">
@@ -7810,8 +7810,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="230"/>
-      <c r="H27" s="230"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="138">
@@ -7836,8 +7836,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="138">
@@ -7862,8 +7862,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="230"/>
-      <c r="H29" s="230"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="138">
@@ -7888,8 +7888,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="138"/>
@@ -7910,8 +7910,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="230"/>
-      <c r="H31" s="230"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="144"/>
@@ -7949,10 +7949,10 @@
       <c r="E34" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="226" t="s">
+      <c r="F34" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="226"/>
+      <c r="G34" s="229"/>
     </row>
     <row r="35" spans="1:12" s="137" customFormat="1" ht="14.25">
       <c r="A35" s="133"/>
@@ -7968,8 +7968,8 @@
       <c r="E35" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="231"/>
-      <c r="G35" s="231"/>
+      <c r="F35" s="230"/>
+      <c r="G35" s="230"/>
       <c r="H35" s="136"/>
       <c r="I35" s="136"/>
       <c r="J35" s="136"/>
@@ -7992,8 +7992,8 @@
       <c r="E36" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="230"/>
-      <c r="G36" s="230"/>
+      <c r="F36" s="228"/>
+      <c r="G36" s="228"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="138">
@@ -8011,8 +8011,8 @@
       <c r="E37" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="230"/>
-      <c r="G37" s="230"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="228"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="144"/>
@@ -8025,10 +8025,10 @@
       <c r="H38" s="148"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="229" t="s">
+      <c r="B39" s="226" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="229"/>
+      <c r="C39" s="226"/>
       <c r="D39" s="125"/>
       <c r="E39" s="125"/>
       <c r="F39" s="125"/>
@@ -8052,15 +8052,15 @@
       <c r="B41" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="229" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="226"/>
-      <c r="E41" s="226" t="s">
+      <c r="D41" s="229"/>
+      <c r="E41" s="229" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="226"/>
-      <c r="G41" s="226"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="229"/>
       <c r="H41" s="130" t="s">
         <v>180</v>
       </c>
@@ -8072,15 +8072,15 @@
       <c r="B42" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="228" t="s">
+      <c r="C42" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="228"/>
-      <c r="E42" s="228" t="s">
+      <c r="D42" s="231"/>
+      <c r="E42" s="231" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
+      <c r="F42" s="231"/>
+      <c r="G42" s="231"/>
       <c r="H42" s="153"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -8090,15 +8090,15 @@
       <c r="B43" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="228" t="s">
+      <c r="C43" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="228"/>
-      <c r="E43" s="228" t="s">
+      <c r="D43" s="231"/>
+      <c r="E43" s="231" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="228"/>
-      <c r="G43" s="228"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="231"/>
       <c r="H43" s="153"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -8108,15 +8108,15 @@
       <c r="B44" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="228" t="s">
+      <c r="C44" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="228"/>
-      <c r="E44" s="228" t="s">
+      <c r="D44" s="231"/>
+      <c r="E44" s="231" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="228"/>
-      <c r="G44" s="228"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="231"/>
       <c r="H44" s="153"/>
     </row>
     <row r="45" spans="1:12">
@@ -8128,10 +8128,10 @@
       <c r="G45" s="129"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="229" t="s">
+      <c r="B46" s="226" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="229"/>
+      <c r="C46" s="226"/>
       <c r="D46" s="125"/>
       <c r="E46" s="125"/>
       <c r="F46" s="125"/>
@@ -8149,25 +8149,25 @@
       <c r="G47" s="129"/>
     </row>
     <row r="48" spans="1:12" s="157" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="224" t="s">
+      <c r="A48" s="233" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="225" t="s">
+      <c r="B48" s="234" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="226" t="s">
+      <c r="C48" s="229" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="226"/>
-      <c r="E48" s="226"/>
-      <c r="F48" s="226"/>
-      <c r="G48" s="227" t="s">
+      <c r="D48" s="229"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="229"/>
+      <c r="G48" s="235" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="227" t="s">
+      <c r="H48" s="235" t="s">
         <v>186</v>
       </c>
-      <c r="I48" s="223" t="s">
+      <c r="I48" s="232" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="156"/>
@@ -8175,8 +8175,8 @@
       <c r="L48" s="156"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="224"/>
-      <c r="B49" s="225"/>
+      <c r="A49" s="233"/>
+      <c r="B49" s="234"/>
       <c r="C49" s="158" t="s">
         <v>161</v>
       </c>
@@ -8189,13 +8189,13 @@
       <c r="F49" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="227"/>
-      <c r="H49" s="227"/>
-      <c r="I49" s="223"/>
+      <c r="G49" s="235"/>
+      <c r="H49" s="235"/>
+      <c r="I49" s="232"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="224"/>
-      <c r="B50" s="225"/>
+      <c r="A50" s="233"/>
+      <c r="B50" s="234"/>
       <c r="C50" s="160" t="s">
         <v>189</v>
       </c>
@@ -8307,38 +8307,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
